--- a/Classes/Class_4/Survey_Exp_Questionnaire_v4.xlsx
+++ b/Classes/Class_4/Survey_Exp_Questionnaire_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Google Drive\Academic\USP\Teaching\FLS6441 - Methods III\Website\Methods_III\Classes\Class_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBEB8E-BC08-4181-8F10-04D4F39BF175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B9C991-116F-4269-B60F-E2DB50AD9757}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="339" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="339" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
   <si>
     <t>type</t>
   </si>
@@ -414,6 +414,21 @@
   </si>
   <si>
     <t>field-list</t>
+  </si>
+  <si>
+    <t>1 pct</t>
+  </si>
+  <si>
+    <t>50 pct</t>
+  </si>
+  <si>
+    <t>5 pct</t>
+  </si>
+  <si>
+    <t>10 pct</t>
+  </si>
+  <si>
+    <t>25 pct</t>
   </si>
 </sst>
 </file>
@@ -863,8 +878,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A350" sqref="A350:D351"/>
       <selection pane="topRight" activeCell="A350" sqref="A350:D351"/>
       <selection pane="bottomLeft" activeCell="A350" sqref="A350:D351"/>
@@ -1114,7 +1129,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="100" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="125" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1246,10 +1261,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A350" sqref="A350:D351"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1574,8 +1589,8 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="2">
-        <v>0.01</v>
+      <c r="C29" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1585,8 +1600,8 @@
       <c r="B30" s="3">
         <v>5</v>
       </c>
-      <c r="C30" s="2">
-        <v>0.05</v>
+      <c r="C30" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,8 +1611,8 @@
       <c r="B31" s="3">
         <v>10</v>
       </c>
-      <c r="C31" s="2">
-        <v>0.1</v>
+      <c r="C31" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,8 +1622,8 @@
       <c r="B32" s="3">
         <v>20</v>
       </c>
-      <c r="C32" s="2">
-        <v>0.25</v>
+      <c r="C32" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,8 +1633,8 @@
       <c r="B33" s="3">
         <v>50</v>
       </c>
-      <c r="C33" s="2">
-        <v>0.5</v>
+      <c r="C33" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Classes/Class_4/Survey_Exp_Questionnaire_v4.xlsx
+++ b/Classes/Class_4/Survey_Exp_Questionnaire_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Google Drive\Academic\USP\Teaching\FLS6441 - Methods III\Website\Methods_III\Classes\Class_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonny\Google Drive\Academic\USP\Teaching\FLS6441 - Methods III\2020\Methods_III\Classes\Class_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B9C991-116F-4269-B60F-E2DB50AD9757}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C7C59B-65A0-4F1E-A698-7F1E7F2973DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="339" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="339" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -349,13 +349,7 @@
     <t>conjoint_1</t>
   </si>
   <si>
-    <t>conjoint_1.jpg</t>
-  </si>
-  <si>
     <t>conjoint_2</t>
-  </si>
-  <si>
-    <t>conjoint_4.jpg</t>
   </si>
   <si>
     <t>${random_conjoint}&lt;0.5</t>
@@ -429,6 +423,12 @@
   </si>
   <si>
     <t>25 pct</t>
+  </si>
+  <si>
+    <t>Conjoint_1.jpg</t>
+  </si>
+  <si>
+    <t>Cconjoint_4.jpg</t>
   </si>
 </sst>
 </file>
@@ -878,29 +878,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A350" sqref="A350:D351"/>
       <selection pane="topRight" activeCell="A350" sqref="A350:D351"/>
       <selection pane="bottomLeft" activeCell="A350" sqref="A350:D351"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.73046875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="3" width="48.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="3" max="3" width="48.46484375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" customWidth="1"/>
+    <col min="9" max="9" width="7.53125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +938,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -946,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -962,7 +962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -978,7 +978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -992,7 +992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1033,13 +1033,13 @@
         <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1047,13 +1047,13 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1072,13 +1072,13 @@
         <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1086,13 +1086,13 @@
         <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1100,10 +1100,10 @@
         <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -1114,22 +1114,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="87.5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="102" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1137,10 +1137,10 @@
         <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1148,32 +1148,32 @@
         <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
         <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="127.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1181,10 +1181,10 @@
         <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1192,18 +1192,18 @@
         <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
@@ -1222,30 +1222,30 @@
         <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1261,20 +1261,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A350" sqref="A350:D351"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.73046875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1590,10 +1590,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1601,10 +1601,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1612,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1623,10 +1623,10 @@
         <v>20</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1634,10 +1634,10 @@
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -1736,78 +1736,78 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/Classes/Class_4/Survey_Exp_Questionnaire_v4.xlsx
+++ b/Classes/Class_4/Survey_Exp_Questionnaire_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonny\Google Drive\Academic\USP\Teaching\FLS6441 - Methods III\2020\Methods_III\Classes\Class_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C7C59B-65A0-4F1E-A698-7F1E7F2973DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D9C6A9-29E2-4149-8A64-E68EBD0C3135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="339" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
     <t>Conjoint_1.jpg</t>
   </si>
   <si>
-    <t>Cconjoint_4.jpg</t>
+    <t>Conjoint_4.jpg</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="102" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="89.25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="127.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="114.75" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>74</v>
       </c>
